--- a/tesis_doctorado/datav2023/base_anualv2023.xlsx
+++ b/tesis_doctorado/datav2023/base_anualv2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -710,29 +710,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B13">
-        <v>1989</v>
+        <v>2023</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1989</v>
+        <v>2015</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -934,17 +934,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B21">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="B22">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1990</v>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B24">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>1990</v>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1158,17 +1158,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B29">
-        <v>1993</v>
+        <v>2021</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1326,17 +1326,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B35">
-        <v>1979</v>
+        <v>2018</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>1979</v>
+        <v>1993</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1354,17 +1354,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B36">
-        <v>1984</v>
+        <v>2023</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>1979</v>
+        <v>1993</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c r="B37">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>1979</v>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="B40">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>1979</v>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         </is>
       </c>
       <c r="B42">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>1979</v>
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1563,16 +1563,16 @@
         <v>1979</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1591,16 +1591,16 @@
         <v>1979</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1610,10 +1610,10 @@
         </is>
       </c>
       <c r="B45">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>1979</v>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1647,100 +1647,100 @@
         <v>1979</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
         <v>3</v>
-      </c>
-      <c r="H46">
-        <v>11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B47">
-        <v>1984</v>
+        <v>2017</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B48">
-        <v>1989</v>
+        <v>2021</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B49">
-        <v>1994</v>
+        <v>2023</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="B50">
-        <v>1999</v>
+        <v>1984</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>1984</v>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="B51">
-        <v>2004</v>
+        <v>1989</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>1984</v>
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="B52">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1834,10 +1834,10 @@
         </is>
       </c>
       <c r="B53">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>1984</v>
@@ -1862,69 +1862,69 @@
         </is>
       </c>
       <c r="B54">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>1984</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B55">
-        <v>1990</v>
+        <v>2009</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B56">
-        <v>1997</v>
+        <v>2014</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1942,29 +1942,29 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B57">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="B58">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1983,16 +1983,16 @@
         <v>1990</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="B60">
-        <v>2016</v>
+        <v>2001</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2054,17 +2054,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B61">
-        <v>1994</v>
+        <v>2006</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2082,17 +2082,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B62">
-        <v>1999</v>
+        <v>2011</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2110,29 +2110,29 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B63">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B64">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2151,16 +2151,16 @@
         <v>1994</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2170,25 +2170,25 @@
         </is>
       </c>
       <c r="B65">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>1994</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2207,100 +2207,100 @@
         <v>1994</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B67">
-        <v>1963</v>
+        <v>2009</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>1963</v>
+        <v>1994</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B68">
-        <v>1968</v>
+        <v>2014</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>1963</v>
+        <v>1994</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B69">
-        <v>1973</v>
+        <v>2019</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>1963</v>
+        <v>1994</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -2310,10 +2310,10 @@
         </is>
       </c>
       <c r="B70">
-        <v>1978</v>
+        <v>1963</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>1963</v>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="B71">
-        <v>1983</v>
+        <v>1968</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="B72">
-        <v>1988</v>
+        <v>1973</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B73">
-        <v>1993</v>
+        <v>1978</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>1998</v>
+        <v>1983</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="B75">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2506,10 +2506,10 @@
         </is>
       </c>
       <c r="B77">
-        <v>2012</v>
+        <v>1998</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>1963</v>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="B78">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B79">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2586,17 +2586,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B80">
-        <v>1989</v>
+        <v>2012</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>1989</v>
+        <v>1963</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2614,17 +2614,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B81">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>1989</v>
+        <v>1963</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2642,17 +2642,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B82">
-        <v>1997</v>
+        <v>2018</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>1989</v>
+        <v>1963</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="B83">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B84">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B85">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>1989</v>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="B86">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -2786,25 +2786,25 @@
         </is>
       </c>
       <c r="B87">
-        <v>2019</v>
+        <v>2005</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>1989</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2814,41 +2814,41 @@
         </is>
       </c>
       <c r="B88">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>1989</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B89">
-        <v>1994</v>
+        <v>2014</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2857,66 +2857,66 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B90">
-        <v>2000</v>
+        <v>2019</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
         <v>3</v>
-      </c>
-      <c r="G90">
-        <v>2</v>
-      </c>
-      <c r="H90">
-        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B91">
-        <v>2006</v>
+        <v>2020</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
         <v>3</v>
-      </c>
-      <c r="G91">
-        <v>2</v>
-      </c>
-      <c r="H91">
-        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="B92">
-        <v>2012</v>
+        <v>1994</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -2935,16 +2935,16 @@
         <v>1994</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="B93">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2963,100 +2963,100 @@
         <v>1994</v>
       </c>
       <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
         <v>3</v>
-      </c>
-      <c r="F93">
-        <v>4</v>
       </c>
       <c r="G93">
         <v>2</v>
       </c>
       <c r="H93">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B94">
-        <v>1985</v>
+        <v>2006</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>1985</v>
+        <v>1994</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B95">
-        <v>1991</v>
+        <v>2012</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>1985</v>
+        <v>1994</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B96">
-        <v>1995</v>
+        <v>2018</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>1985</v>
+        <v>1994</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="B97">
-        <v>1999</v>
+        <v>1985</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="B98">
-        <v>2003</v>
+        <v>1990</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B99">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="B100">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="B101">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="B102">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -3230,17 +3230,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B103">
-        <v>1993</v>
+        <v>2011</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>1993</v>
+        <v>1985</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -3258,17 +3258,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B104">
-        <v>1997</v>
+        <v>2015</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>1993</v>
+        <v>1985</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -3286,17 +3286,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B105">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>1993</v>
+        <v>1985</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -3314,17 +3314,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B106">
-        <v>2005</v>
+        <v>2023</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>1993</v>
+        <v>1985</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="B107">
-        <v>2009</v>
+        <v>1993</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="B108">
-        <v>2013</v>
+        <v>1997</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B109">
-        <v>2017</v>
+        <v>2001</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -3426,17 +3426,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B110">
-        <v>1986</v>
+        <v>2005</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -3454,17 +3454,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B111">
-        <v>1990</v>
+        <v>2009</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -3482,57 +3482,57 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B112">
-        <v>1994</v>
+        <v>2013</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B113">
-        <v>1998</v>
+        <v>2017</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B114">
-        <v>2002</v>
+        <v>1986</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -3554,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3570,10 +3570,10 @@
         </is>
       </c>
       <c r="B115">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>1986</v>
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="B116">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="B117">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="B118">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B119">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -3706,113 +3706,113 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B120">
-        <v>1978</v>
+        <v>2010</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>1978</v>
+        <v>1986</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B121">
-        <v>1982</v>
+        <v>2014</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>1978</v>
+        <v>1986</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B122">
+        <v>2018</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
         <v>1986</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>1978</v>
-      </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B123">
-        <v>1990</v>
+        <v>2022</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>1978</v>
+        <v>1986</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B124">
-        <v>1994</v>
+        <v>1978</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="B125">
-        <v>1998</v>
+        <v>1982</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3859,16 +3859,16 @@
         <v>1978</v>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="B126">
-        <v>2002</v>
+        <v>1986</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -3887,16 +3887,16 @@
         <v>1978</v>
       </c>
       <c r="E126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="B127">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -3915,16 +3915,16 @@
         <v>1978</v>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="B128">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -3943,16 +3943,16 @@
         <v>1978</v>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B129">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -3974,13 +3974,13 @@
         <v>3</v>
       </c>
       <c r="F129">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G129">
         <v>2</v>
       </c>
       <c r="H129">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
@@ -3990,7 +3990,7 @@
         </is>
       </c>
       <c r="B130">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -4002,13 +4002,13 @@
         <v>3</v>
       </c>
       <c r="F130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G130">
         <v>2</v>
       </c>
       <c r="H130">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B131">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -4030,60 +4030,60 @@
         <v>3</v>
       </c>
       <c r="F131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G131">
         <v>2</v>
       </c>
       <c r="H131">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Republica Dominicana</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B132">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>2016</v>
+        <v>1978</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Republica Dominicana</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B133">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>2016</v>
+        <v>1978</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F133">
         <v>4</v>
@@ -4092,79 +4092,79 @@
         <v>2</v>
       </c>
       <c r="H133">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B134">
-        <v>1999</v>
+        <v>2018</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>1999</v>
+        <v>1978</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B135">
-        <v>2004</v>
+        <v>2022</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>1999</v>
+        <v>1978</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Republica Dominicana</t>
         </is>
       </c>
       <c r="B136">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>1999</v>
+        <v>2016</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -4182,29 +4182,29 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Republica Dominicana</t>
         </is>
       </c>
       <c r="B137">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>1999</v>
+        <v>2016</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138">
@@ -4214,7 +4214,7 @@
         </is>
       </c>
       <c r="B138">
-        <v>2019</v>
+        <v>1999</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -4232,6 +4232,146 @@
         <v>0</v>
       </c>
       <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="B139">
+        <v>2004</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>1999</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="B140">
+        <v>2009</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>1999</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="B141">
+        <v>2014</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1999</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="B142">
+        <v>2019</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>1999</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="B143">
+        <v>2024</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>1999</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
         <v>0</v>
       </c>
     </row>

--- a/tesis_doctorado/datav2023/base_anualv2023.xlsx
+++ b/tesis_doctorado/datav2023/base_anualv2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3538,17 +3538,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B114">
-        <v>1986</v>
+        <v>2021</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -3570,10 +3570,10 @@
         </is>
       </c>
       <c r="B115">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115">
         <v>1986</v>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="B116">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>1986</v>
@@ -3610,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="B117">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="B118">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B119">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="B120">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -3738,7 +3738,7 @@
         </is>
       </c>
       <c r="B121">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="B122">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="B123">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3818,29 +3818,29 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B124">
-        <v>1978</v>
+        <v>2022</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>1978</v>
+        <v>1986</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="B125">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="B126">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="B127">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="B128">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B129">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -3971,16 +3971,16 @@
         <v>1978</v>
       </c>
       <c r="E129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -3990,7 +3990,7 @@
         </is>
       </c>
       <c r="B130">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B131">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="B132">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="B133">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -4086,13 +4086,13 @@
         <v>3</v>
       </c>
       <c r="F133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G133">
         <v>2</v>
       </c>
       <c r="H133">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B134">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -4130,7 +4130,7 @@
         </is>
       </c>
       <c r="B135">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -4154,29 +4154,29 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Republica Dominicana</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B136">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>2016</v>
+        <v>1978</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
@@ -4186,10 +4186,10 @@
         </is>
       </c>
       <c r="B137">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <v>2016</v>
@@ -4198,41 +4198,41 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Republica Dominicana</t>
         </is>
       </c>
       <c r="B138">
-        <v>1999</v>
+        <v>2020</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>1999</v>
+        <v>2016</v>
       </c>
       <c r="E138">
         <v>0</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139">
@@ -4242,10 +4242,10 @@
         </is>
       </c>
       <c r="B139">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139">
         <v>1999</v>
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="B140">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -4298,10 +4298,10 @@
         </is>
       </c>
       <c r="B141">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141">
         <v>1999</v>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="B142">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -4354,10 +4354,10 @@
         </is>
       </c>
       <c r="B143">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143">
         <v>1999</v>
@@ -4372,6 +4372,34 @@
         <v>0</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="B144">
+        <v>2024</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>1999</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
         <v>0</v>
       </c>
     </row>
